--- a/months/fb23/fb23.xlsx
+++ b/months/fb23/fb23.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="164">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">L1,E1</t>
   </si>
   <si>
-    <t xml:space="preserve">D+</t>
+    <t xml:space="preserve">+D</t>
   </si>
   <si>
     <t xml:space="preserve">0,10</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">22,40</t>
   </si>
   <si>
-    <t xml:space="preserve">C+</t>
+    <t xml:space="preserve">+C</t>
   </si>
   <si>
     <t xml:space="preserve">1,10</t>
@@ -110,400 +110,394 @@
     <t xml:space="preserve">1,20</t>
   </si>
   <si>
+    <t xml:space="preserve">-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1,L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1,L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2,L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1,L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L,E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">штрафы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОСКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАБЫВАШКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУГАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РАСПРАВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧАШКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОЛОСЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОЖАЛЕНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В МАСЛЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЫЛЕСОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">купание после 20 ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поощрения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЫПЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДВОРНИКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖИЛИЩНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУММ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a:bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a:sleeptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a:dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:stroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:sleeptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:teeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:tele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h:vacuum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h:dishwash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h:kitchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:siesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:sleeptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:meals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:teeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:siesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:sleeptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:meals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dutyTrue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.22": "3*", "&lt;.23": "2*", "&gt;.23": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"1": 25, "2": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": {"CDIF": 50, "P": 25}, "-": {"CDIF": 0, "P": -25}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "1*", "&gt;.23": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "3*", "&gt;.23": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dutyFalse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.22": "2*", "&lt;.23": "1*", "&gt;.23": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"1": 25, "2": -25}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "1*", "&gt;.23": 0, "&gt;.0": "-1*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"1": 1, "2": 1.25, "3": 1.5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty_False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.22: 3*, &lt;.23: 2*, &gt;=.23: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.22: 2*, &lt;.23: 1*, &gt;=.23: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: 50, 2: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: 50, 2: -50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.22: 2*, &lt;.23: 1*, &gt;=.23: -1*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.23: 1*, &gt;=.23: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.23: 2*, &gt;=.23: 0, &gt;.0: -1*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;.23: 2*, &lt;.0: 1*, &gt;=.0: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1,L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1,L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2,L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1,L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L,E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">С+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">штрафы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">е</t>
-  </si>
-  <si>
-    <t xml:space="preserve">л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОСКИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАБЫВАШКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУГАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РАСПРАВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧАШКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВОЛОСЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОЖАЛЕНИЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В МАСЛЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЫЛЕСОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">купание после 20 ч</t>
-  </si>
-  <si>
-    <t xml:space="preserve">поощрения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЫПЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДВОРНИКИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖИЛИЩНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СУММ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a:bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a:sleeptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a:dreams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:stroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:sleeptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:teeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:tele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h:vacuum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h:dishwash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h:kitchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:hygiene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:siesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:sleeptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:meals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:teeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:siesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:sleeptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:meals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dutyTrue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.22": "3*", "&lt;.23": "2*", "&gt;.23": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"1": 25, "2": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": {"CDIF": 50, "P": 25}, "-": {"CDIF": 0, "P": -25}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.23": "1*", "&gt;.23": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.23": "3*", "&gt;.23": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dutyFalse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.22": "2*", "&lt;.23": "1*", "&gt;.23": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"1": 25, "2": -25}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.23": "1*", "&gt;.23": 0, "&gt;.0": "-1*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"1": 1, "2": 1.25, "3": 1.5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEAK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEAK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty_False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;.22: 3*, &lt;.23: 2*, &gt;=.23: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;.22: 2*, &lt;.23: 1*, &gt;=.23: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: 50, 2: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: 50, 2: -50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;.22: 2*, &lt;.23: 1*, &gt;=.23: -1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;.23: 1*, &gt;=.23: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;.23: 2*, &gt;=.23: 0, &gt;.0: -1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;.23: 2*, &lt;.0: 1*, &gt;=.0: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSWER</t>
   </si>
   <si>
     <t xml:space="preserve">20,00</t>
@@ -667,7 +661,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -724,15 +718,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -947,14 +933,14 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S7" activeCellId="0" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="AA17" activeCellId="0" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -983,7 +969,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="4" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="5" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="30" style="4" width="8.57"/>
   </cols>
@@ -1501,18 +1487,18 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="8"/>
       <c r="S7" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>11</v>
@@ -1521,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="10" t="s">
         <v>11</v>
@@ -1551,7 +1537,7 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>16</v>
@@ -1579,12 +1565,12 @@
         <v>11</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y8" s="8"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC8" s="11"/>
       <c r="AD8" s="7"/>
@@ -1598,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>7</v>
@@ -1607,13 +1593,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1633,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>11</v>
@@ -1644,7 +1630,7 @@
         <v>22</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="10" t="s">
         <v>11</v>
@@ -1661,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -1672,13 +1658,13 @@
         <v>7</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1700,7 +1686,7 @@
         <v>11</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>11</v>
@@ -1711,7 +1697,7 @@
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB10" s="10" t="s">
         <v>11</v>
@@ -1760,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>11</v>
@@ -1769,7 +1755,7 @@
         <v>11</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W11" s="7" t="s">
         <v>11</v>
@@ -1816,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
@@ -1846,7 +1832,7 @@
       <c r="AC12" s="11"/>
       <c r="AD12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>44969</v>
       </c>
@@ -1862,14 +1848,14 @@
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
       <c r="H13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
@@ -1890,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>11</v>
@@ -1903,7 +1889,7 @@
         <v>22</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB13" s="10" t="s">
         <v>11</v>
@@ -1913,7 +1899,7 @@
       </c>
       <c r="AD13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>44970</v>
       </c>
@@ -1933,16 +1919,16 @@
         <v>7</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>11</v>
@@ -1953,7 +1939,7 @@
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>11</v>
@@ -1969,18 +1955,18 @@
         <v>11</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB14" s="10" t="s">
         <v>11</v>
@@ -1990,7 +1976,7 @@
       </c>
       <c r="AD14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>44971</v>
       </c>
@@ -2010,7 +1996,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>7</v>
@@ -2032,7 +2018,7 @@
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>11</v>
@@ -2046,7 +2032,7 @@
         <v>11</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>11</v>
@@ -2061,7 +2047,7 @@
         <v>22</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB15" s="10" t="s">
         <v>11</v>
@@ -2071,7 +2057,7 @@
       </c>
       <c r="AD15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>44972</v>
       </c>
@@ -2089,13 +2075,13 @@
         <v>16</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>32</v>
@@ -2120,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>11</v>
@@ -2129,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>11</v>
@@ -2144,7 +2130,7 @@
         <v>22</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB16" s="10" t="s">
         <v>11</v>
@@ -2154,7 +2140,7 @@
       </c>
       <c r="AD16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>44973</v>
       </c>
@@ -2166,24 +2152,22 @@
         <v>6</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>11</v>
@@ -2210,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W17" s="7" t="s">
         <v>11</v>
@@ -2223,7 +2207,7 @@
         <v>28</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB17" s="10" t="s">
         <v>11</v>
@@ -2248,24 +2232,24 @@
         <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="8"/>
@@ -2284,7 +2268,7 @@
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
@@ -2293,7 +2277,7 @@
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB18" s="10" t="s">
         <v>11</v>
@@ -2316,7 +2300,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>7</v>
@@ -2359,7 +2343,7 @@
         <v>22</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB19" s="10"/>
       <c r="AC19" s="5" t="n">
@@ -2384,7 +2368,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>7</v>
@@ -2421,7 +2405,7 @@
       </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB20" s="10" t="s">
         <v>11</v>
@@ -2452,7 +2436,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>7</v>
@@ -2475,7 +2459,7 @@
         <v>11</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>11</v>
@@ -2484,7 +2468,7 @@
         <v>11</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W21" s="7" t="s">
         <v>11</v>
@@ -2494,10 +2478,10 @@
       </c>
       <c r="Y21" s="8"/>
       <c r="Z21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB21" s="10" t="s">
         <v>11</v>
@@ -2524,13 +2508,13 @@
         <v>7</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
@@ -2540,7 +2524,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="8"/>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -2549,14 +2533,14 @@
         <v>11</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W22" s="7" t="s">
         <v>11</v>
@@ -2571,7 +2555,7 @@
         <v>22</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB22" s="10" t="s">
         <v>11</v>
@@ -2601,16 +2585,16 @@
         <v>7</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>11</v>
@@ -2619,19 +2603,19 @@
       <c r="N23" s="7"/>
       <c r="O23" s="8"/>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="8"/>
       <c r="S23" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7" t="s">
@@ -2641,10 +2625,10 @@
         <v>11</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB23" s="10" t="s">
         <v>11</v>
@@ -2667,7 +2651,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
       <c r="H24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>7</v>
@@ -2678,12 +2662,12 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="8"/>
       <c r="P24" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>11</v>
@@ -2695,14 +2679,14 @@
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,16 +2705,16 @@
         <v>7</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -2759,16 +2743,16 @@
         <v>11</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y25" s="8"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC25" s="0" t="n">
         <v>1</v>
@@ -2788,20 +2772,20 @@
         <v>34</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -2817,12 +2801,12 @@
         <v>11</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W26" s="7" t="s">
         <v>11</v>
@@ -2830,10 +2814,10 @@
       <c r="X26" s="7"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB26" s="10" t="s">
         <v>11</v>
@@ -2856,14 +2840,14 @@
         <v>7</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>11</v>
@@ -2876,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>11</v>
@@ -2904,7 +2888,7 @@
       </c>
       <c r="Y27" s="8"/>
       <c r="Z27" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>23</v>
@@ -2931,7 +2915,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>7</v>
@@ -2940,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -2998,7 +2982,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>7</v>
@@ -3007,7 +2991,7 @@
         <v>30</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>11</v>
@@ -3016,7 +3000,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="8"/>
       <c r="P29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="8" t="s">
@@ -3030,7 +3014,7 @@
         <v>11</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W29" s="7" t="s">
         <v>11</v>
@@ -3042,10 +3026,10 @@
         <v>11</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB29" s="10" t="s">
         <v>11</v>
@@ -3112,7 +3096,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3129,7 +3113,6 @@
       <c r="N32" s="7"/>
       <c r="O32" s="8"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
       <c r="R32" s="8"/>
       <c r="S32" s="13"/>
       <c r="T32" s="7"/>
@@ -3161,7 +3144,7 @@
       <c r="M38" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AE32">
+  <conditionalFormatting sqref="A1:AE31 A32:P32 R32:AE32">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -3199,7 +3182,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2:Q32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2:Q31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3255,75 +3238,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="12"/>
       <c r="D1" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>83</v>
+      <c r="A2" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>84</v>
+      <c r="A3" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="0" t="n">
         <f aca="false">B3*-100</f>
         <v>-100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>85</v>
+      <c r="A4" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="14" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <f aca="false">B4*-50</f>
         <v>-200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>86</v>
+      <c r="A5" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="0" t="n">
         <f aca="false">B5*-100</f>
         <v>-200</v>
       </c>
@@ -3332,34 +3315,34 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>87</v>
+      <c r="A6" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <f aca="false">B6*-100</f>
         <v>-300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="14" t="n">
+      <c r="A7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <f aca="false">B7*-100</f>
         <v>-0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>89</v>
+      <c r="A8" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="0" t="n">
         <f aca="false">B8*-100</f>
         <v>-500</v>
       </c>
@@ -3367,41 +3350,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="14" t="n">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <f aca="false">B9*-100</f>
         <v>-0</v>
       </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="14" t="n">
+      <c r="A10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <f aca="false">B10*-100</f>
         <v>-0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="14" t="n">
+        <v>89</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <f aca="false">B11*-100</f>
         <v>-0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="14" t="n">
+        <v>91</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <f aca="false">B12*50</f>
         <v>450</v>
       </c>
@@ -3410,57 +3394,60 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="0" t="n">
         <f aca="false">B13*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="0" t="n">
         <f aca="false">B14*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="0" t="n">
         <f aca="false">B15*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="0" t="n">
         <f aca="false">B16*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="14" t="n">
+        <v>95</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>-550</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>-200</v>
       </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A7">
@@ -3479,9 +3466,18 @@
       <formula>NOT(ISERROR(SEARCH("дома",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B18:C27" type="list">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="beginsWith" priority="6" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
+      <formula>LEFT(G9,LEN("!"))="!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B18:C22 C23:C27 B24:B27" type="list">
       <formula1>$O$2:$O$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G9" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3502,951 +3498,951 @@
   </sheetPr>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="32.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="32.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="20" width="5.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="20" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="21" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="22" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="22" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="23" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="20" width="45.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="20" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="23" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="20" width="32.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="20" width="24.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="20" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="21" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="20" width="45.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="20" width="32.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="20" width="6.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="24" style="20" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="32.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="32.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="5.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="20" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="21" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="45.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="21" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="18" width="32.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="24.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="18" width="23.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="19" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="18" width="45.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="18" width="32.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="18" width="6.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="24" style="18" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="N1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="O1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="Q1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="S1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="W1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="13" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="C2" s="26" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="F2" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" s="26" t="n">
+        <v>300</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="K2" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="L2" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="20" t="n">
+      <c r="O2" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="H2" s="20" t="n">
+      <c r="P2" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="I2" s="28" t="n">
-        <v>300</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="R2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="29" t="n">
+      <c r="T2" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="M2" s="28" t="n">
+      <c r="U2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="W2" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="28" t="n">
+      <c r="C3" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="N3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="P3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="R3" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="S3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="W3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="P2" s="28" t="n">
+      <c r="H4" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="Q2" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="28" t="n">
+      <c r="I4" s="26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="27" t="n">
+        <v>50</v>
+      </c>
+      <c r="M4" s="26" t="n">
+        <v>50</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" s="26" t="n">
+        <v>50</v>
+      </c>
+      <c r="P4" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="T2" s="27" t="n">
+      <c r="S4" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="U2" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="W2" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="27" t="n">
+      <c r="X4" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="n">
+      <c r="C5" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="D3" s="28" t="n">
+      <c r="D5" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E5" s="25" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F5" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="28" t="n">
+      <c r="I5" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="G3" s="20" t="n">
+      <c r="J5" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="20" t="n">
+      <c r="K5" s="25"/>
+      <c r="L5" s="27" t="n">
+        <v>-50</v>
+      </c>
+      <c r="M5" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="N5" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="28" t="n">
+      <c r="O5" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="27" t="n">
+      <c r="P5" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="Q5" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="R5" s="26" t="n">
+        <v>-50</v>
+      </c>
+      <c r="S5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="29" t="n">
+      <c r="T5" s="25" t="n">
+        <v>-50</v>
+      </c>
+      <c r="U5" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="28" t="n">
+      <c r="V5" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="N3" s="28" t="n">
+      <c r="W5" s="18" t="n">
+        <v>-50</v>
+      </c>
+      <c r="X5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="P3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="R3" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="S3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="W3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" s="28" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="29" t="n">
-        <v>50</v>
-      </c>
-      <c r="M4" s="28" t="n">
-        <v>50</v>
-      </c>
-      <c r="N4" s="28" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="O4" s="28" t="n">
-        <v>50</v>
-      </c>
-      <c r="P4" s="28" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="28" t="s">
+      <c r="N6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="R4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="T4" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="W4" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="B7" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I7" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" s="18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U7" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V7" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W7" s="18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X7" s="18" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="n">
-        <v>-50</v>
-      </c>
-      <c r="F5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="G5" s="20" t="n">
-        <v>-50</v>
-      </c>
-      <c r="H5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J5" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="29" t="n">
-        <v>-50</v>
-      </c>
-      <c r="M5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="N5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="Q5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="R5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="S5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="27" t="n">
-        <v>-50</v>
-      </c>
-      <c r="U5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="W5" s="20" t="n">
-        <v>-50</v>
-      </c>
-      <c r="X5" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="28" t="s">
+      <c r="B8" s="25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E8" s="25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H8" s="18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J8" s="25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K8" s="25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L8" s="27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" s="25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V8" s="26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W8" s="18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X8" s="18" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="T6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="B9" s="25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" s="25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V9" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W9" s="18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X9" s="18" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S10" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V10" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W10" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="27" t="n">
+      <c r="B11" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C11" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D11" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E11" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F11" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="20" t="n">
+      <c r="H11" s="18" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="20" t="n">
+      <c r="I11" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="28" t="n">
+      <c r="J11" s="25" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="27" t="n">
+      <c r="K11" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N11" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O11" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P11" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q11" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R11" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S11" s="18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T11" s="25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U11" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V11" s="26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W11" s="18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X11" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="18" t="n">
         <v>1.5</v>
       </c>
-      <c r="K7" s="27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M7" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N7" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O7" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R7" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" s="20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" s="27" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U7" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V7" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W7" s="20" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X7" s="20" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E8" s="27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G8" s="20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H8" s="20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J8" s="27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K8" s="27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L8" s="29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S8" s="20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T8" s="27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V8" s="28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W8" s="20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X8" s="20" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E9" s="27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H9" s="20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K9" s="27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S9" s="20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" s="27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V9" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W9" s="20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X9" s="20" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="28" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G10" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S10" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V10" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W10" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X10" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="27" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E11" s="27" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F11" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H11" s="20" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J11" s="27" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K11" s="27" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L11" s="29" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S11" s="20" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T11" s="27" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="V11" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W11" s="20" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X11" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="20" t="n">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="23"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="23"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="23"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="23"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="23"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="23"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="23"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="23"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="23"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="23"/>
+      <c r="H25" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4470,7 +4466,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.15"/>
@@ -4479,42 +4475,42 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="A1" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="H1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="e">
+      <c r="A2" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
@@ -4523,88 +4519,88 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="e">
+      <c r="A3" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="28" t="n">
+      <c r="B3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="28" t="n">
+      <c r="D3" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="F3" s="28" t="n">
+      <c r="F3" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="G3" s="28" t="n">
+      <c r="G3" s="26" t="n">
         <v>1.25</v>
       </c>
-      <c r="H3" s="28" t="n">
+      <c r="H3" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="I3" s="28" t="n">
+      <c r="I3" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="J3" s="28" t="n">
+      <c r="J3" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="K3" s="28" t="n">
+      <c r="K3" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="e">
+      <c r="A4" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28" t="n">
+      <c r="B4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="G4" s="28" t="n">
+      <c r="G4" s="26" t="n">
         <v>1.25</v>
       </c>
-      <c r="H4" s="28" t="n">
+      <c r="H4" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="I4" s="28" t="n">
+      <c r="I4" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="J4" s="28" t="n">
+      <c r="J4" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="K4" s="28" t="n">
+      <c r="K4" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="e">
+      <c r="A5" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>-50</v>
@@ -4629,43 +4625,43 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="e">
+      <c r="A6" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="28" t="n">
+      <c r="B6" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="28" t="n">
+      <c r="D6" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="F6" s="28" t="n">
+      <c r="F6" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="28" t="n">
+      <c r="G6" s="26" t="n">
         <v>1.25</v>
       </c>
-      <c r="H6" s="28" t="n">
+      <c r="H6" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="I6" s="28" t="n">
+      <c r="I6" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="28" t="n">
+      <c r="J6" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="28" t="n">
+      <c r="K6" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="e">
+      <c r="A7" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
@@ -4674,7 +4670,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="e">
+      <c r="A8" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
@@ -4683,287 +4679,287 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="e">
+      <c r="A9" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B9" s="28" t="n">
+      <c r="B9" s="26" t="n">
         <v>300</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="F9" s="28" t="n">
+      <c r="F9" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="G9" s="28" t="n">
+      <c r="G9" s="26" t="n">
         <v>1.25</v>
       </c>
-      <c r="H9" s="28" t="n">
+      <c r="H9" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="I9" s="28" t="n">
+      <c r="I9" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="J9" s="28" t="n">
+      <c r="J9" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="K9" s="28" t="n">
+      <c r="K9" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="e">
+      <c r="A10" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="28" t="n">
+      <c r="B10" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="28" t="n">
+      <c r="D10" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="28" t="n">
+      <c r="F10" s="26" t="n">
         <v>1.25</v>
       </c>
-      <c r="G10" s="28" t="n">
+      <c r="G10" s="26" t="n">
         <v>1.25</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="I10" s="28" t="n">
+      <c r="I10" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="J10" s="28" t="n">
+      <c r="J10" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="K10" s="28" t="n">
+      <c r="K10" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="e">
+      <c r="A11" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="e">
+      <c r="A12" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="e">
+      <c r="A13" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="e">
+      <c r="A14" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="e">
+      <c r="A15" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="e">
+      <c r="A16" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="e">
+      <c r="A17" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="28" t="n">
+      <c r="B17" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="28" t="n">
+      <c r="D17" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="26" t="n">
         <v>-50</v>
       </c>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="G17" s="28" t="n">
+      <c r="G17" s="26" t="n">
         <v>1.25</v>
       </c>
-      <c r="H17" s="28" t="n">
+      <c r="H17" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="I17" s="28" t="n">
+      <c r="I17" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="J17" s="28" t="n">
+      <c r="J17" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="e">
+      <c r="A18" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="e">
+      <c r="A19" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="e">
+      <c r="A20" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="e">
+      <c r="A21" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28" t="n">
+      <c r="B21" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="G21" s="28" t="n">
+      <c r="G21" s="26" t="n">
         <v>1.25</v>
       </c>
-      <c r="H21" s="28" t="n">
+      <c r="H21" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="I21" s="28" t="n">
+      <c r="I21" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="J21" s="28" t="n">
+      <c r="J21" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="K21" s="28" t="n">
+      <c r="K21" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="e">
+      <c r="A22" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="e">
+      <c r="A23" s="26" t="e">
         <f aca="false">price!#ref!</f>
         <v>#NAME?</v>
       </c>
@@ -4990,7 +4986,7 @@
       <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="5.43"/>
@@ -5010,7 +5006,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="3" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="3" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="3" width="9.14"/>
@@ -5018,7 +5014,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -5146,16 +5142,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -5164,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>11</v>
@@ -5194,7 +5190,7 @@
         <v>11</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>11</v>
@@ -5206,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>1</v>
@@ -5223,7 +5219,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2</v>
@@ -5232,16 +5228,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>16</v>
@@ -5250,13 +5246,13 @@
         <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W3" s="3" t="n">
         <v>2</v>
@@ -5265,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>2</v>
@@ -5282,25 +5278,25 @@
         <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>32</v>
@@ -5326,31 +5322,31 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB5" s="3" t="n">
         <v>4</v>
@@ -5361,28 +5357,28 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,61 +5387,61 @@
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="F8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="F11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="F12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="F13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="F14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="F15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/months/fb23/fb23.xlsx
+++ b/months/fb23/fb23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="165">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t xml:space="preserve">KGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
   </si>
   <si>
     <t xml:space="preserve">price</t>
@@ -932,10 +935,10 @@
   </sheetPr>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AA17" activeCellId="0" sqref="AA17"/>
     </sheetView>
@@ -3498,8 +3501,8 @@
   </sheetPr>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3511,12 +3514,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="32.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="14.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="20" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="21" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="21" width="24.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="21" width="23.15"/>
@@ -4411,6 +4414,80 @@
         <v>1</v>
       </c>
       <c r="X12" s="18" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="18" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4466,7 +4543,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.15"/>
@@ -4476,13 +4553,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>132</v>
@@ -4524,13 +4601,13 @@
         <v>#NAME?</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="26" t="n">
         <v>-50</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" s="26" t="n">
         <v>-50</v>
@@ -4560,13 +4637,13 @@
         <v>#NAME?</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26" t="n">
@@ -4594,7 +4671,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -4630,13 +4707,13 @@
         <v>#NAME?</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>-50</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" s="26" t="n">
         <v>-50</v>
@@ -4852,13 +4929,13 @@
         <v>#NAME?</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="26" t="n">
         <v>-50</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17" s="26" t="n">
         <v>-50</v>
@@ -4926,11 +5003,11 @@
         <v>#NAME?</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="n">
@@ -5014,7 +5091,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -5142,16 +5219,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -5160,7 +5237,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>11</v>
@@ -5190,7 +5267,7 @@
         <v>11</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>11</v>
@@ -5202,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>1</v>
@@ -5228,16 +5305,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>16</v>
@@ -5246,13 +5323,13 @@
         <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W3" s="3" t="n">
         <v>2</v>
@@ -5261,7 +5338,7 @@
         <v>2</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>2</v>
@@ -5278,10 +5355,10 @@
         <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>40</v>
@@ -5322,10 +5399,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>37</v>
@@ -5357,10 +5434,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
